--- a/doc/Sentences_Checklist_0.1.xlsx
+++ b/doc/Sentences_Checklist_0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Sentence</t>
   </si>
@@ -114,6 +114,15 @@
   </si>
   <si>
     <t>Not Tested</t>
+  </si>
+  <si>
+    <t>Multiple longest words</t>
+  </si>
+  <si>
+    <t>Two, three</t>
+  </si>
+  <si>
+    <t>Every word</t>
   </si>
 </sst>
 </file>
@@ -478,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M84"/>
+  <dimension ref="A1:M87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -584,40 +593,40 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="1" t="s">
+      <c r="K15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D16" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="K16" s="1" t="s">
         <v>30</v>
@@ -625,15 +634,15 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D18" s="1" t="s">
-        <v>14</v>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>30</v>
@@ -641,7 +650,7 @@
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>30</v>
@@ -649,7 +658,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>30</v>
@@ -657,7 +666,7 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D21" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>30</v>
@@ -665,7 +674,7 @@
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>30</v>
@@ -673,23 +682,23 @@
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>9</v>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>26</v>
+      <c r="D25" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>30</v>
@@ -697,30 +706,54 @@
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C27" s="1" t="s">
+      <c r="K29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C28" s="1" t="s">
+      <c r="K30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E84" s="2"/>
+      <c r="K31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E87" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Sentences_Checklist_0.1.xlsx
+++ b/doc/Sentences_Checklist_0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <t>Sentence</t>
   </si>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>Every word</t>
+  </si>
+  <si>
+    <t>Same word</t>
+  </si>
+  <si>
+    <t>Duplicate longest word returned only once.</t>
+  </si>
+  <si>
+    <t>Same word, different case</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -487,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M87"/>
+  <dimension ref="A1:M89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -533,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -541,7 +553,7 @@
         <v>5</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -557,7 +569,7 @@
         <v>18</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -617,24 +629,30 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C17" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>30</v>
@@ -642,15 +660,15 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D19" s="1" t="s">
-        <v>16</v>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>30</v>
@@ -658,7 +676,7 @@
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>30</v>
@@ -666,23 +684,23 @@
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C23" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>30</v>
@@ -690,55 +708,55 @@
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="1" t="s">
+      <c r="K26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C26" s="1" t="s">
+      <c r="K27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
+      <c r="K28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
+      <c r="K29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C30" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>30</v>
@@ -746,14 +764,30 @@
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E87" s="2"/>
+      <c r="K33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E89" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/Sentences_Checklist_0.1.xlsx
+++ b/doc/Sentences_Checklist_0.1.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
   <si>
     <t>Sentence</t>
   </si>
@@ -135,6 +135,33 @@
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>Multiple sentence</t>
+  </si>
+  <si>
+    <t>No sentence punctuation</t>
+  </si>
+  <si>
+    <t>Very long run-on</t>
+  </si>
+  <si>
+    <t>No final punctuation</t>
+  </si>
+  <si>
+    <t>Exclamation mark instead of period</t>
+  </si>
+  <si>
+    <t>Punctuation without final punctuation</t>
+  </si>
+  <si>
+    <t>Single sentence</t>
+  </si>
+  <si>
+    <t>Smoke test</t>
+  </si>
+  <si>
+    <t>Assuming numbers are not included in word matches.</t>
   </si>
 </sst>
 </file>
@@ -499,9 +526,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M89"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -537,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -561,7 +588,7 @@
         <v>6</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -577,12 +604,12 @@
         <v>19</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1" t="s">
         <v>30</v>
@@ -590,23 +617,26 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>30</v>
@@ -614,7 +644,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>30</v>
@@ -622,172 +652,239 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="1" t="s">
+      <c r="K23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D16" s="1" t="s">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="1" t="s">
+      <c r="K24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C18" s="1" t="s">
+      <c r="K25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C19" s="1" t="s">
+      <c r="K26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C20" s="1" t="s">
+      <c r="K27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D21" s="1" t="s">
+      <c r="K28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C22" s="1" t="s">
+      <c r="K29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D23" s="1" t="s">
+      <c r="K30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D24" s="1" t="s">
+      <c r="K31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C25" s="1" t="s">
+      <c r="K32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D26" s="1" t="s">
+      <c r="K33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="D27" s="1" t="s">
+      <c r="K34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C28" s="1" t="s">
+      <c r="K35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
+      <c r="K36" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
+      <c r="K37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C31" s="1" t="s">
+      <c r="K38" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C32" s="1" t="s">
+      <c r="K39" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C40" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.3">
-      <c r="C33" s="1" t="s">
+      <c r="K40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="C41" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E89" s="2"/>
+      <c r="K41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E97" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
